--- a/pynum/test.xlsx
+++ b/pynum/test.xlsx
@@ -411,16 +411,16 @@
         <v>42602</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8159672104167739</v>
+        <v>0.6351224701321139</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8143313165934114</v>
+        <v>0.8563754812735298</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3771877219210724</v>
+        <v>0.2045067698099069</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3295236151279236</v>
+        <v>0.5404261885992665</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -428,16 +428,16 @@
         <v>42603</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3197526031809844</v>
+        <v>0.5100874611936471</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6461437423603108</v>
+        <v>0.5437310844479901</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7580952607788614</v>
+        <v>0.7980857289840904</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3959035710305291</v>
+        <v>0.09051198079081235</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -445,16 +445,16 @@
         <v>42604</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9103399721876319</v>
+        <v>0.1635798255180422</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09405803375203137</v>
+        <v>0.752640154970505</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9722709934459653</v>
+        <v>0.8655251845937489</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3502861042425126</v>
+        <v>0.1066308137261054</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -462,16 +462,16 @@
         <v>42605</v>
       </c>
       <c r="B5" t="n">
-        <v>0.287672129791935</v>
+        <v>0.3434682271256014</v>
       </c>
       <c r="C5" t="n">
-        <v>0.362582415402096</v>
+        <v>0.5204086779128538</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1684785382189601</v>
+        <v>0.4187482555952511</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5847616243392891</v>
+        <v>0.05270694658652009</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -479,16 +479,16 @@
         <v>42606</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2710182532361994</v>
+        <v>0.6668149294927741</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6258926417945105</v>
+        <v>0.737530524461136</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2011841546967347</v>
+        <v>0.5919105696369171</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01641470535247502</v>
+        <v>0.3334580311094052</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -496,16 +496,16 @@
         <v>42607</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7310101032089664</v>
+        <v>0.6676659502303031</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7441642162183164</v>
+        <v>0.7595262551985483</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5184638672444302</v>
+        <v>0.6606048677456933</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4539398481335496</v>
+        <v>0.4934600525651606</v>
       </c>
     </row>
   </sheetData>

--- a/pynum/test.xlsx
+++ b/pynum/test.xlsx
@@ -411,16 +411,16 @@
         <v>42602</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6351224701321139</v>
+        <v>0.3830520358464513</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8563754812735298</v>
+        <v>0.8947454165326297</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2045067698099069</v>
+        <v>0.6327228580167067</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5404261885992665</v>
+        <v>0.4240862509183345</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -428,16 +428,16 @@
         <v>42603</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5100874611936471</v>
+        <v>0.7596543070440361</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5437310844479901</v>
+        <v>0.6465080687461903</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7980857289840904</v>
+        <v>0.59483642934008</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09051198079081235</v>
+        <v>0.2693498587946093</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -445,16 +445,16 @@
         <v>42604</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1635798255180422</v>
+        <v>0.4369891931017392</v>
       </c>
       <c r="C4" t="n">
-        <v>0.752640154970505</v>
+        <v>0.2750477894891764</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8655251845937489</v>
+        <v>0.5590702820641964</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1066308137261054</v>
+        <v>0.2384682983040076</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -462,16 +462,16 @@
         <v>42605</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3434682271256014</v>
+        <v>0.761972593927858</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5204086779128538</v>
+        <v>0.9404414338443914</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4187482555952511</v>
+        <v>0.1252523231592332</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05270694658652009</v>
+        <v>0.6136490322132813</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -479,16 +479,16 @@
         <v>42606</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6668149294927741</v>
+        <v>0.2120530015793479</v>
       </c>
       <c r="C6" t="n">
-        <v>0.737530524461136</v>
+        <v>0.945671954701841</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5919105696369171</v>
+        <v>0.6392771840427417</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3334580311094052</v>
+        <v>0.8740041794208206</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -496,16 +496,16 @@
         <v>42607</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6676659502303031</v>
+        <v>0.9141177053444617</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7595262551985483</v>
+        <v>0.8362416142071636</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6606048677456933</v>
+        <v>0.2074197608251617</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4934600525651606</v>
+        <v>0.2823075770737018</v>
       </c>
     </row>
   </sheetData>

--- a/pynum/test.xlsx
+++ b/pynum/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44,11 +44,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,18 +75,17 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -390,7 +385,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
@@ -411,16 +406,16 @@
         <v>42602</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3830520358464513</v>
+        <v>0.1204550405168874</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8947454165326297</v>
+        <v>0.6654442275040676</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6327228580167067</v>
+        <v>0.8078337803243403</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4240862509183345</v>
+        <v>0.2450621031224502</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -428,16 +423,16 @@
         <v>42603</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7596543070440361</v>
+        <v>0.4539414475809678</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6465080687461903</v>
+        <v>0.7729534099525274</v>
       </c>
       <c r="D3" t="n">
-        <v>0.59483642934008</v>
+        <v>0.2577099326830097</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2693498587946093</v>
+        <v>0.7899746462485072</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -445,16 +440,16 @@
         <v>42604</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4369891931017392</v>
+        <v>0.02055844833442855</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2750477894891764</v>
+        <v>0.4261848558017219</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5590702820641964</v>
+        <v>0.9728423264414652</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2384682983040076</v>
+        <v>0.8332517956954593</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -462,16 +457,16 @@
         <v>42605</v>
       </c>
       <c r="B5" t="n">
-        <v>0.761972593927858</v>
+        <v>0.9577729782515341</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9404414338443914</v>
+        <v>0.9469140204162609</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1252523231592332</v>
+        <v>0.8865241505657516</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6136490322132813</v>
+        <v>0.001940186130332422</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -479,16 +474,16 @@
         <v>42606</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2120530015793479</v>
+        <v>0.8531650055805777</v>
       </c>
       <c r="C6" t="n">
-        <v>0.945671954701841</v>
+        <v>0.2180334800914588</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6392771840427417</v>
+        <v>0.5417130738800748</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8740041794208206</v>
+        <v>0.9182288522186908</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -496,16 +491,16 @@
         <v>42607</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9141177053444617</v>
+        <v>0.1220822183242434</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8362416142071636</v>
+        <v>0.05567179371070807</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2074197608251617</v>
+        <v>0.4129535157962319</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2823075770737018</v>
+        <v>0.20704279006156</v>
       </c>
     </row>
   </sheetData>

--- a/pynum/test.xlsx
+++ b/pynum/test.xlsx
@@ -1,12 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -388,119 +389,119 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
+      <c s="1" r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c s="1" r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c s="1" r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c s="1" r="E1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="n">
+      <c s="2" r="A2" t="n">
         <v>42602</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1204550405168874</v>
+        <v>0.4563608284818185</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6654442275040676</v>
+        <v>0.9273650678762257</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8078337803243403</v>
+        <v>0.8354523563316736</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2450621031224502</v>
+        <v>0.05821883569495312</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2" t="n">
+      <c s="2" r="A3" t="n">
         <v>42603</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4539414475809678</v>
+        <v>0.7929666181390504</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7729534099525274</v>
+        <v>0.05052467538074146</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2577099326830097</v>
+        <v>0.6096784439272749</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7899746462485072</v>
+        <v>0.09449538605335239</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2" t="n">
+      <c s="2" r="A4" t="n">
         <v>42604</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02055844833442855</v>
+        <v>0.111567854201376</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4261848558017219</v>
+        <v>0.2742382959998588</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9728423264414652</v>
+        <v>0.9570239701178569</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8332517956954593</v>
+        <v>0.6294842823153325</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2" t="n">
+      <c s="2" r="A5" t="n">
         <v>42605</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9577729782515341</v>
+        <v>0.6347913970626236</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9469140204162609</v>
+        <v>0.9376015632941085</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8865241505657516</v>
+        <v>0.4705250484250316</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001940186130332422</v>
+        <v>0.8694453664741512</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2" t="n">
+      <c s="2" r="A6" t="n">
         <v>42606</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8531650055805777</v>
+        <v>0.8000582078526735</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2180334800914588</v>
+        <v>0.3691467731077845</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5417130738800748</v>
+        <v>0.4656527718142461</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9182288522186908</v>
+        <v>0.640823936725912</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2" t="n">
+      <c s="2" r="A7" t="n">
         <v>42607</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1220822183242434</v>
+        <v>0.5399219637168067</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05567179371070807</v>
+        <v>0.418353225942076</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4129535157962319</v>
+        <v>0.389908679202523</v>
       </c>
       <c r="E7" t="n">
-        <v>0.20704279006156</v>
+        <v>0.7922667944345729</v>
       </c>
     </row>
   </sheetData>
